--- a/Data/Export/Common/JobType_指令.xlsx
+++ b/Data/Export/Common/JobType_指令.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDE358E-B655-4345-8294-E4248D792422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA4BAF4-2474-467E-9AA6-2B84D3214883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10944" yWindow="1656" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="79">
   <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人才/搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>都市/征兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +310,22 @@
   </si>
   <si>
     <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褒赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才/褒赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才/搜索人才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,29 +793,29 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -813,28 +825,28 @@
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="H1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,7 +861,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -866,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -898,28 +910,28 @@
         <v>4</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -936,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>13</v>
@@ -951,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -969,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
@@ -984,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1001,13 +1013,13 @@
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="4">
         <v>3</v>
@@ -1016,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1036,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="4">
         <v>3</v>
@@ -1048,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1056,22 +1068,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
@@ -1080,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1088,31 +1100,31 @@
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="4">
         <v>3</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1120,22 +1132,22 @@
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
@@ -1144,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1152,31 +1164,31 @@
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="4">
         <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1184,22 +1196,22 @@
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="4">
         <v>3</v>
@@ -1208,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1216,31 +1228,31 @@
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="4">
         <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1248,31 +1260,31 @@
         <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="4">
         <v>3</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1280,31 +1292,31 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="4">
         <v>3</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1312,22 +1324,22 @@
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -1336,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1344,22 +1356,22 @@
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
@@ -1368,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1376,22 +1388,22 @@
         <v>32</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
@@ -1400,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -1408,22 +1420,22 @@
         <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20" s="4">
         <v>3</v>
@@ -1432,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -1440,22 +1452,22 @@
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="4">
         <v>3</v>
@@ -1464,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -1472,22 +1484,22 @@
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="4">
         <v>3</v>
@@ -1496,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -1504,10 +1516,10 @@
         <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
@@ -1516,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" s="4">
         <v>3</v>
@@ -1528,357 +1540,384 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J102" s="4"/>
     </row>
   </sheetData>

--- a/Data/Export/Common/JobType_指令.xlsx
+++ b/Data/Export/Common/JobType_指令.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA4BAF4-2474-467E-9AA6-2B84D3214883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D129C04-C606-4737-9F53-198B2C3441B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
   <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,10 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事驻守</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +797,10 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1573,9 +1577,36 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="B25" s="4">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
